--- a/Resources/Antioxidant Data.xlsx
+++ b/Resources/Antioxidant Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliza\Desktop\Data Analytics\Git Hub Repositories\antioxidant-data\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{272BDE04-0097-49B8-B402-88BE24BFEEBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC7C2F-0F46-4EA5-8E38-52829D5FE048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="19" xr2:uid="{15412DEF-91D5-4F27-B085-C60010ED39D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15412DEF-91D5-4F27-B085-C60010ED39D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Berries &amp; Berry Products" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Fish &amp; Seafood'!$A$1:$E$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Fruits &amp; Fruit Juices'!$A$1:$E$279</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Grains &amp; Grain Products'!$A$1:$E$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'HerbalTraditional Plant Meds'!$B$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'HerbalTraditional Plant Meds'!$A$1:$E$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Legumes!$A$1:$E$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Meat &amp; Meat Products'!$A$1:$E$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Misc Ingredients'!$A$1:$E$45</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7709" uniqueCount="2653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7809" uniqueCount="2658">
   <si>
     <t>Product</t>
   </si>
@@ -8040,12 +8040,27 @@
   <si>
     <t>AARP Formula 196, no iron</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8100,6 +8115,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8115,7 +8138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -8151,11 +8174,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8250,6 +8288,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8565,10 +8606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416DD78B-59FD-4309-900B-795B629DABCF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8578,7 +8619,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
@@ -8615,7 +8656,7 @@
     <col min="122" max="122" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8632,7 +8673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -8649,7 +8690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -8665,8 +8706,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H3" s="33">
+        <f>AVERAGE(D3:D121)</f>
+        <v>9.8609243697478988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>89</v>
       </c>
@@ -8682,8 +8730,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MEDIAN(D3:D121)</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -8699,8 +8754,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MIN(D3:D121)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
@@ -8716,8 +8778,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H6" s="33">
+        <f>MAX(D3:D121)</f>
+        <v>261.52999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -8733,8 +8802,15 @@
       <c r="E7" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H7" s="34">
+        <f>_xlfn.STDEV.P(D3:D121)</f>
+        <v>26.560151139579474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -8751,7 +8827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
@@ -8768,7 +8844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
@@ -8785,7 +8861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -8802,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
@@ -8819,7 +8895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
@@ -8836,7 +8912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -8853,7 +8929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -8870,7 +8946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -10677,10 +10753,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C3C99-8547-4373-A1DE-A5F979C89B23}">
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10692,7 +10768,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10709,7 +10785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1236</v>
       </c>
@@ -10725,8 +10801,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D279)</f>
+        <v>1.2456115107913686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1054</v>
       </c>
@@ -10742,8 +10825,15 @@
       <c r="E3" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D279)</f>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1231</v>
       </c>
@@ -10757,8 +10847,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D279)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1229</v>
       </c>
@@ -10774,8 +10871,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D279)</f>
+        <v>55.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1239</v>
       </c>
@@ -10791,8 +10895,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D33)</f>
+        <v>9.2046711508936454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1007</v>
       </c>
@@ -10809,7 +10920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1239</v>
       </c>
@@ -10824,7 +10935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1233</v>
       </c>
@@ -10837,7 +10948,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1026</v>
       </c>
@@ -10854,7 +10965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1253</v>
       </c>
@@ -10871,7 +10982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1151</v>
       </c>
@@ -10888,7 +10999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1242</v>
       </c>
@@ -10905,7 +11016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1004</v>
       </c>
@@ -10922,7 +11033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1179</v>
       </c>
@@ -10939,7 +11050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1223</v>
       </c>
@@ -15318,10 +15429,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA86F164-7913-4782-A016-9969E415FD68}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15333,7 +15444,7 @@
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15350,7 +15461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1481</v>
       </c>
@@ -15366,8 +15477,15 @@
       <c r="E2" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D247)</f>
+        <v>0.32544715447154476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1263</v>
       </c>
@@ -15383,8 +15501,15 @@
       <c r="E3" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D247)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1494</v>
       </c>
@@ -15400,8 +15525,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D247)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1307</v>
       </c>
@@ -15417,8 +15549,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D247)</f>
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1315</v>
       </c>
@@ -15434,8 +15573,15 @@
       <c r="E6" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D247)</f>
+        <v>0.50598893273754431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1311</v>
       </c>
@@ -15452,7 +15598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1311</v>
       </c>
@@ -15469,7 +15615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1309</v>
       </c>
@@ -15486,7 +15632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1405</v>
       </c>
@@ -15503,7 +15649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1281</v>
       </c>
@@ -15520,7 +15666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1352</v>
       </c>
@@ -15537,7 +15683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1354</v>
       </c>
@@ -15554,7 +15700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1277</v>
       </c>
@@ -15571,7 +15717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1309</v>
       </c>
@@ -15588,7 +15734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1505</v>
       </c>
@@ -19535,1041 +19681,1076 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E11F20-D2B3-4378-826E-B0F6991E7F3F}">
-  <dimension ref="B1:F60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1550</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7">
         <v>2897.11</v>
       </c>
-      <c r="F2" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D60)</f>
+        <v>91.718813559322015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1562</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
         <v>706.25</v>
       </c>
-      <c r="F3" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D60)</f>
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1506</v>
+      </c>
       <c r="B4" s="5" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
         <v>301.14</v>
       </c>
-      <c r="F4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D60)</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1510</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
         <v>146.94999999999999</v>
       </c>
-      <c r="F5" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D60)</f>
+        <v>2897.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1535</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E6" s="7">
+      <c r="D6" s="7">
         <v>132.58000000000001</v>
       </c>
-      <c r="F6" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D60)</f>
+        <v>381.6005746721537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1528</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C7" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7">
         <v>120.18</v>
       </c>
-      <c r="F7" s="8">
+      <c r="E7" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1554</v>
+      </c>
       <c r="B8" s="5" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C8" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E8" s="7">
+      <c r="D8" s="7">
         <v>111.33</v>
       </c>
-      <c r="F8" s="8">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="B9" s="16"/>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
         <v>89.23</v>
       </c>
-      <c r="F9" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1559</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="7">
+      <c r="D10" s="7">
         <v>64.58</v>
       </c>
-      <c r="F10" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1527</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C11" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E11" s="7">
+      <c r="D11" s="7">
         <v>64.31</v>
       </c>
-      <c r="F11" s="8">
+      <c r="E11" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1545</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C12" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E12" s="7">
+      <c r="D12" s="7">
         <v>55.13</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E12" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1532</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E13" s="7">
+      <c r="D13" s="7">
         <v>47.3</v>
       </c>
-      <c r="F13" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1522</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C14" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E14" s="7">
+      <c r="D14" s="7">
         <v>47.15</v>
       </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1565</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C15" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E15" s="7">
+      <c r="D15" s="7">
         <v>40.89</v>
       </c>
-      <c r="F15" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1564</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C16" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
         <v>39.67</v>
       </c>
-      <c r="F16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>1538</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C17" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E17" s="7">
+      <c r="D17" s="7">
         <v>39.18</v>
       </c>
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>1568</v>
+      </c>
       <c r="B18" s="24" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C18" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="29">
+      <c r="D18" s="29">
         <v>38.78</v>
       </c>
-      <c r="F18" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>1566</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C19" s="5" t="s">
         <v>1567</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="E19" s="7">
+      <c r="D19" s="7">
         <v>37.1</v>
       </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1511</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C20" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E20" s="7">
+      <c r="D20" s="7">
         <v>36.28</v>
       </c>
-      <c r="F20" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1523</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C21" s="5" t="s">
         <v>1524</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
         <v>35.700000000000003</v>
       </c>
-      <c r="F21" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E21" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>1517</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C22" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
         <v>25.42</v>
       </c>
-      <c r="F22" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1549</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C23" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E23" s="7">
+      <c r="D23" s="7">
         <v>21.35</v>
       </c>
-      <c r="F23" s="8">
+      <c r="E23" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1544</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C24" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
         <v>19.989999999999998</v>
       </c>
-      <c r="F24" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>1561</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C25" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E25" s="7">
+      <c r="D25" s="7">
         <v>19.489999999999998</v>
       </c>
-      <c r="F25" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1521</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C26" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E26" s="7">
+      <c r="D26" s="7">
         <v>19.14</v>
       </c>
-      <c r="F26" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1525</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C27" s="5" t="s">
         <v>1526</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="C27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="22">
         <v>18.32</v>
       </c>
-      <c r="F27" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>1518</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E28" s="7">
+      <c r="D28" s="7">
         <v>17.98</v>
       </c>
-      <c r="F28" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>1570</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C29" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E29" s="7">
+      <c r="D29" s="7">
         <v>17.52</v>
       </c>
-      <c r="F29" s="8">
+      <c r="E29" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>1515</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C30" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E30" s="7">
+      <c r="D30" s="7">
         <v>17.48</v>
       </c>
-      <c r="F30" s="8">
+      <c r="E30" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>1539</v>
+      </c>
       <c r="B31" s="5" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C31" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E31" s="7">
+      <c r="D31" s="7">
         <v>14.18</v>
       </c>
-      <c r="F31" s="8">
+      <c r="E31" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>1556</v>
+      </c>
       <c r="B32" s="5" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C32" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
         <v>13.77</v>
       </c>
-      <c r="F32" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>1569</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C33" s="5" t="s">
         <v>1567</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="E33" s="7">
+      <c r="D33" s="7">
         <v>13.73</v>
       </c>
-      <c r="F33" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>1534</v>
+      </c>
       <c r="B34" s="5" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C34" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E34" s="7">
+      <c r="D34" s="7">
         <v>11.58</v>
       </c>
-      <c r="F34" s="8">
+      <c r="E34" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>1531</v>
+      </c>
       <c r="B35" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C35" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E35" s="7">
+      <c r="D35" s="7">
         <v>10.69</v>
       </c>
-      <c r="F35" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>1519</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C36" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="C36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
         <v>10.4</v>
       </c>
-      <c r="F36" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E36" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>1536</v>
+      </c>
       <c r="B37" s="5" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C37" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E37" s="7">
+      <c r="D37" s="7">
         <v>9.67</v>
       </c>
-      <c r="F37" s="8">
+      <c r="E37" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>1530</v>
+      </c>
       <c r="B38" s="5" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C38" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7">
         <v>7.68</v>
       </c>
-      <c r="F38" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>1541</v>
+      </c>
       <c r="B39" s="5" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C39" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
         <v>7.57</v>
       </c>
-      <c r="F39" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>1514</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C40" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E40" s="7">
+      <c r="D40" s="7">
         <v>7.37</v>
       </c>
-      <c r="F40" s="8">
+      <c r="E40" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>1529</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C41" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E41" s="7">
+      <c r="D41" s="7">
         <v>6.68</v>
       </c>
-      <c r="F41" s="8">
+      <c r="E41" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>1558</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C42" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
         <v>6.44</v>
       </c>
-      <c r="F42" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="E42" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="B43" s="16"/>
+      <c r="C43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
         <v>6.39</v>
       </c>
-      <c r="F43" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>1560</v>
+      </c>
       <c r="B44" s="5" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C44" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E44" s="7">
+      <c r="D44" s="7">
         <v>5.88</v>
       </c>
-      <c r="F44" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
+      <c r="E44" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>1571</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>1080</v>
       </c>
-      <c r="E45" s="22">
+      <c r="D45" s="22">
         <v>5.88</v>
       </c>
-      <c r="F45" s="23">
+      <c r="E45" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>1520</v>
+      </c>
       <c r="B46" s="5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C46" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E46" s="7">
+      <c r="D46" s="7">
         <v>5.66</v>
       </c>
-      <c r="F46" s="8">
+      <c r="E46" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>1563</v>
+      </c>
       <c r="B47" s="5" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C47" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E47" s="7">
+      <c r="D47" s="7">
         <v>5.15</v>
       </c>
-      <c r="F47" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E47" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>1516</v>
+      </c>
       <c r="B48" s="5" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C48" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F48" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>1513</v>
+      </c>
       <c r="B49" s="5" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C49" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E49" s="7">
+      <c r="D49" s="7">
         <v>4.87</v>
       </c>
-      <c r="F49" s="8">
+      <c r="E49" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>1540</v>
+      </c>
       <c r="B50" s="5" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C50" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E50" s="7">
+      <c r="D50" s="7">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F50" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E50" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>1548</v>
+      </c>
       <c r="B51" s="5" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C51" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E51" s="7">
+      <c r="D51" s="7">
         <v>3.94</v>
       </c>
-      <c r="F51" s="8">
+      <c r="E51" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>1512</v>
+      </c>
       <c r="B52" s="5" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C52" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E52" s="7">
+      <c r="D52" s="7">
         <v>3.72</v>
       </c>
-      <c r="F52" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E52" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>1508</v>
+      </c>
       <c r="B53" s="5" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C53" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E53" s="7">
+      <c r="D53" s="7">
         <v>2.96</v>
       </c>
-      <c r="F53" s="8">
+      <c r="E53" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>1537</v>
+      </c>
       <c r="B54" s="5" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C54" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E54" s="7">
+      <c r="D54" s="7">
         <v>2.82</v>
       </c>
-      <c r="F54" s="8">
+      <c r="E54" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>1555</v>
+      </c>
       <c r="B55" s="5" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C55" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="7">
+      <c r="C55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7">
         <v>2.58</v>
       </c>
-      <c r="F55" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>1547</v>
+      </c>
       <c r="B56" s="5" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C56" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E56" s="7">
+      <c r="D56" s="7">
         <v>2.31</v>
       </c>
-      <c r="F56" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E56" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>1533</v>
+      </c>
       <c r="B57" s="5" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C57" s="5" t="s">
         <v>1509</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E57" s="7">
+      <c r="D57" s="7">
         <v>1.45</v>
       </c>
-      <c r="F57" s="8">
+      <c r="E57" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>1542</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C58" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="7">
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="7">
         <v>0.8</v>
       </c>
-      <c r="F58" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>1553</v>
+      </c>
       <c r="B59" s="5" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C59" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="E59" s="7">
+      <c r="D59" s="7">
         <v>0.47</v>
       </c>
-      <c r="F59" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E59" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>1546</v>
+      </c>
       <c r="B60" s="24" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C60" s="24" t="s">
         <v>1509</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="C60" s="28" t="s">
         <v>1080</v>
       </c>
-      <c r="E60" s="29">
+      <c r="D60" s="29">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F60" s="30">
+      <c r="E60" s="30">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F60" xr:uid="{1927B761-57E8-4124-B46F-172D0E3FB722}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F60">
-    <sortCondition descending="1" ref="E2:E60"/>
+  <autoFilter ref="A1:E60" xr:uid="{1927B761-57E8-4124-B46F-172D0E3FB722}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E60">
+    <sortCondition descending="1" ref="D2:D60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20577,10 +20758,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65CCAE0-9209-4C0E-8136-B6C84A9F3E79}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20592,7 +20773,7 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20609,7 +20790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1584</v>
       </c>
@@ -20623,8 +20804,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D70)</f>
+        <v>0.4798550724637683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1576</v>
       </c>
@@ -20640,8 +20828,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D70)</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1585</v>
       </c>
@@ -20657,8 +20852,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D70)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1599</v>
       </c>
@@ -20674,8 +20876,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D70)</f>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1598</v>
       </c>
@@ -20691,8 +20900,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D70)</f>
+        <v>0.47838645694084486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1644</v>
       </c>
@@ -20709,7 +20925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1630</v>
       </c>
@@ -20724,7 +20940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1629</v>
       </c>
@@ -20741,7 +20957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1606</v>
       </c>
@@ -20758,7 +20974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1602</v>
       </c>
@@ -20775,7 +20991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1633</v>
       </c>
@@ -20792,7 +21008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1583</v>
       </c>
@@ -20807,7 +21023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1582</v>
       </c>
@@ -20822,7 +21038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1589</v>
       </c>
@@ -20837,7 +21053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1632</v>
       </c>
@@ -21773,10 +21989,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE646B8-4FD6-4FF2-BA32-0C4442C492EA}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="G11:H11"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21788,7 +22004,7 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21805,7 +22021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1651</v>
       </c>
@@ -21821,8 +22037,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D32)</f>
+        <v>0.30935483870967723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1669</v>
       </c>
@@ -21836,8 +22059,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D32)</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1667</v>
       </c>
@@ -21853,8 +22083,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1654</v>
       </c>
@@ -21870,8 +22107,15 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D32)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1665</v>
       </c>
@@ -21887,8 +22131,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D32)</f>
+        <v>0.2132836288784366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1654</v>
       </c>
@@ -21905,7 +22156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1660</v>
       </c>
@@ -21922,7 +22173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1670</v>
       </c>
@@ -21937,7 +22188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1677</v>
       </c>
@@ -21954,7 +22205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1654</v>
       </c>
@@ -21971,7 +22222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1654</v>
       </c>
@@ -21988,7 +22239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1654</v>
       </c>
@@ -22005,7 +22256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1654</v>
       </c>
@@ -22022,7 +22273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1674</v>
       </c>
@@ -22039,7 +22290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1660</v>
       </c>
@@ -22329,10 +22580,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE7BDD2-63E9-4D10-AFF2-3DD8C436D1A5}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22344,7 +22595,7 @@
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22362,7 +22613,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1728</v>
       </c>
@@ -22379,8 +22630,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D45)</f>
+        <v>0.77409090909090861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1714</v>
       </c>
@@ -22397,8 +22655,15 @@
         <v>6</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D45)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1693</v>
       </c>
@@ -22415,8 +22680,15 @@
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1718</v>
       </c>
@@ -22433,8 +22705,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D45)</f>
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1710</v>
       </c>
@@ -22451,8 +22730,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D45)</f>
+        <v>2.4003364519676458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1696</v>
       </c>
@@ -22470,7 +22756,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1736</v>
       </c>
@@ -22488,7 +22774,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1736</v>
       </c>
@@ -22506,7 +22792,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1695</v>
       </c>
@@ -22524,7 +22810,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1712</v>
       </c>
@@ -22542,7 +22828,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1743</v>
       </c>
@@ -22560,7 +22846,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1721</v>
       </c>
@@ -22576,7 +22862,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1729</v>
       </c>
@@ -22594,7 +22880,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1719</v>
       </c>
@@ -22610,7 +22896,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1743</v>
       </c>
@@ -23157,10 +23443,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD87CCA-C272-42B1-9023-02ED5E844AC9}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23172,7 +23458,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23189,7 +23475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1812</v>
       </c>
@@ -23203,8 +23489,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D91)</f>
+        <v>4.5743333333333354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1812</v>
       </c>
@@ -23220,8 +23513,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D91)</f>
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1812</v>
       </c>
@@ -23235,8 +23535,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D91)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1812</v>
       </c>
@@ -23252,8 +23559,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D91)</f>
+        <v>33.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23267,8 +23581,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D91)</f>
+        <v>8.0552184672766955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23285,7 +23606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1811</v>
       </c>
@@ -23300,7 +23621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23317,7 +23638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23334,7 +23655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1812</v>
       </c>
@@ -23351,7 +23672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23368,7 +23689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23385,7 +23706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1808</v>
       </c>
@@ -23400,7 +23721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1783</v>
       </c>
@@ -23417,7 +23738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1783</v>
       </c>
@@ -24674,10 +24995,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887BAA37-CD6E-4738-9815-A5297291CF79}">
-  <dimension ref="A1:E425"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24689,7 +25010,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24706,7 +25027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1940</v>
       </c>
@@ -24722,8 +25043,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D425)</f>
+        <v>29.062995283018854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1941</v>
       </c>
@@ -24739,8 +25067,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D425)</f>
+        <v>11.305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1941</v>
       </c>
@@ -24756,8 +25091,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D425)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1941</v>
       </c>
@@ -24773,8 +25115,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D425)</f>
+        <v>465.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1885</v>
       </c>
@@ -24790,8 +25139,15 @@
       <c r="E6" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D425)</f>
+        <v>46.072725086807147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1941</v>
       </c>
@@ -24808,7 +25164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2061</v>
       </c>
@@ -24825,7 +25181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2111</v>
       </c>
@@ -24842,7 +25198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2059</v>
       </c>
@@ -24859,7 +25215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2128</v>
       </c>
@@ -24876,7 +25232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2205</v>
       </c>
@@ -24893,7 +25249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2020</v>
       </c>
@@ -24910,7 +25266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1937</v>
       </c>
@@ -24927,7 +25283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2205</v>
       </c>
@@ -24944,7 +25300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1866</v>
       </c>
@@ -31843,10 +32199,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01067BC1-A57F-4BB6-88C6-DE46F49D039F}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31858,7 +32214,7 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -31876,7 +32232,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1833</v>
       </c>
@@ -31893,8 +32249,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D51)</f>
+        <v>0.22620000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1834</v>
       </c>
@@ -31911,8 +32274,15 @@
         <v>3</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D51)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1860</v>
       </c>
@@ -31929,8 +32299,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D51)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1853</v>
       </c>
@@ -31947,8 +32324,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1859</v>
       </c>
@@ -31965,8 +32349,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D51)</f>
+        <v>0.21469876571606084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1852</v>
       </c>
@@ -31984,7 +32375,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1819</v>
       </c>
@@ -32002,7 +32393,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1823</v>
       </c>
@@ -32020,7 +32411,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1825</v>
       </c>
@@ -32038,7 +32429,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1823</v>
       </c>
@@ -32056,7 +32447,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1825</v>
       </c>
@@ -32074,7 +32465,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1837</v>
       </c>
@@ -32092,7 +32483,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1823</v>
       </c>
@@ -32110,7 +32501,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1819</v>
       </c>
@@ -32128,7 +32519,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1826</v>
       </c>
@@ -32787,10 +33178,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B394FE-4A39-42C8-AD2E-1B8BCCE8CA33}">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32802,7 +33193,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32819,7 +33210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2323</v>
       </c>
@@ -32835,8 +33226,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D304)</f>
+        <v>0.80247524752475319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2339</v>
       </c>
@@ -32852,8 +33250,15 @@
       <c r="E3" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D304)</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2220</v>
       </c>
@@ -32869,8 +33274,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D304)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2223</v>
       </c>
@@ -32886,8 +33298,15 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D304)</f>
+        <v>48.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2216</v>
       </c>
@@ -32903,8 +33322,15 @@
       <c r="E6" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D304)</f>
+        <v>2.9238386561182028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2224</v>
       </c>
@@ -32921,7 +33347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2362</v>
       </c>
@@ -32938,7 +33364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2296</v>
       </c>
@@ -32955,7 +33381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2216</v>
       </c>
@@ -32972,7 +33398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2356</v>
       </c>
@@ -32989,7 +33415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2341</v>
       </c>
@@ -33006,7 +33432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2465</v>
       </c>
@@ -33023,7 +33449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2276</v>
       </c>
@@ -33040,7 +33466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2218</v>
       </c>
@@ -33057,7 +33483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>2274</v>
       </c>
@@ -37839,10 +38265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D76A37-AF54-4D76-814D-447A5CE2DDA0}">
-  <dimension ref="A1:E283"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37854,7 +38280,7 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -37871,7 +38297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>401</v>
       </c>
@@ -37887,8 +38313,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D283)</f>
+        <v>8.3702836879432603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>433</v>
       </c>
@@ -37904,8 +38337,15 @@
       <c r="E3" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D283)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>445</v>
       </c>
@@ -37919,8 +38359,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D1:D119)</f>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>437</v>
       </c>
@@ -37936,8 +38383,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D1:D119)</f>
+        <v>1347.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>391</v>
       </c>
@@ -37953,8 +38407,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D1:D119)</f>
+        <v>124.78027644133017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>354</v>
       </c>
@@ -37971,7 +38432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>435</v>
       </c>
@@ -37988,7 +38449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>404</v>
       </c>
@@ -38003,7 +38464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>218</v>
       </c>
@@ -38020,7 +38481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>217</v>
       </c>
@@ -38037,7 +38498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>212</v>
       </c>
@@ -38054,7 +38515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>245</v>
       </c>
@@ -38071,7 +38532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>246</v>
       </c>
@@ -38088,7 +38549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>215</v>
       </c>
@@ -38105,7 +38566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>323</v>
       </c>
@@ -42605,10 +43066,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6B0C82-21FE-4713-B0F9-9EE6064BCA23}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42619,7 +43080,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -42636,7 +43097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2559</v>
       </c>
@@ -42652,8 +43113,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D132)</f>
+        <v>98.577328244274838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2527</v>
       </c>
@@ -42669,8 +43137,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D132)</f>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2528</v>
       </c>
@@ -42686,8 +43161,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D132)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2630</v>
       </c>
@@ -42703,8 +43185,15 @@
       <c r="E5" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D132)</f>
+        <v>1052.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2482</v>
       </c>
@@ -42720,8 +43209,15 @@
       <c r="E6" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D132)</f>
+        <v>204.7657083119519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2649</v>
       </c>
@@ -42738,7 +43234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2566</v>
       </c>
@@ -42753,7 +43249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2503</v>
       </c>
@@ -42768,7 +43264,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>2496</v>
       </c>
@@ -42785,7 +43281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2628</v>
       </c>
@@ -42802,7 +43298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>2480</v>
       </c>
@@ -42819,7 +43315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2484</v>
       </c>
@@ -42836,7 +43332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>2529</v>
       </c>
@@ -42853,7 +43349,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2609</v>
       </c>
@@ -42870,7 +43366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>2490</v>
       </c>
@@ -44843,15 +45339,16 @@
     <sortCondition descending="1" ref="D2:D132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EE00BB-7E18-44C3-9233-BF5718674D94}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44863,7 +45360,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -44880,7 +45377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>513</v>
       </c>
@@ -44896,8 +45393,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D91)</f>
+        <v>1.0859999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>505</v>
       </c>
@@ -44913,8 +45417,15 @@
       <c r="E3" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D91)</f>
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>570</v>
       </c>
@@ -44930,8 +45441,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D91)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>597</v>
       </c>
@@ -44947,8 +45465,15 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D91)</f>
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>588</v>
       </c>
@@ -44964,8 +45489,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P((D2:D91))</f>
+        <v>0.8348117552278882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>536</v>
       </c>
@@ -44982,7 +45514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>563</v>
       </c>
@@ -44999,7 +45531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>553</v>
       </c>
@@ -45014,7 +45546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>504</v>
       </c>
@@ -45031,7 +45563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>563</v>
       </c>
@@ -45048,7 +45580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>585</v>
       </c>
@@ -45065,7 +45597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>563</v>
       </c>
@@ -45082,7 +45614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>500</v>
       </c>
@@ -45099,7 +45631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>502</v>
       </c>
@@ -45116,7 +45648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>596</v>
       </c>
@@ -46415,10 +46947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69E34DA-4668-476E-8B68-9FFB84355999}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46428,9 +46960,10 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -46447,7 +46980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>618</v>
       </c>
@@ -46463,8 +46996,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D81)</f>
+        <v>4.927999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>619</v>
       </c>
@@ -46480,8 +47020,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D81)</f>
+        <v>2.335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>621</v>
       </c>
@@ -46497,8 +47044,15 @@
       <c r="E4" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D81)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>598</v>
       </c>
@@ -46514,8 +47068,15 @@
       <c r="E5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D81)</f>
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>626</v>
       </c>
@@ -46531,8 +47092,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D81)</f>
+        <v>4.8187167378877991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>620</v>
       </c>
@@ -46549,7 +47117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>622</v>
       </c>
@@ -46566,7 +47134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>615</v>
       </c>
@@ -46583,7 +47151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>617</v>
       </c>
@@ -46600,7 +47168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>632</v>
       </c>
@@ -46617,7 +47185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>628</v>
       </c>
@@ -46634,7 +47202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>636</v>
       </c>
@@ -46651,7 +47219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>639</v>
       </c>
@@ -46668,7 +47236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>613</v>
       </c>
@@ -46685,7 +47253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>634</v>
       </c>
@@ -47814,10 +48382,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1794D4BF-725D-4A1B-8F26-F143D6319A66}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47829,7 +48397,7 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -47846,7 +48414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>714</v>
       </c>
@@ -47862,8 +48430,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D87)</f>
+        <v>0.14151162790697669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>739</v>
       </c>
@@ -47879,8 +48454,15 @@
       <c r="E3" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D87)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>741</v>
       </c>
@@ -47896,8 +48478,15 @@
       <c r="E4" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>730</v>
       </c>
@@ -47913,8 +48502,15 @@
       <c r="E5" s="6" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D87)</f>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>716</v>
       </c>
@@ -47930,8 +48526,15 @@
       <c r="E6" s="6" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D87)</f>
+        <v>0.17710539131329006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>731</v>
       </c>
@@ -47948,7 +48551,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>739</v>
       </c>
@@ -47965,7 +48568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>779</v>
       </c>
@@ -47982,7 +48585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>729</v>
       </c>
@@ -47999,7 +48602,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>765</v>
       </c>
@@ -48016,7 +48619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>766</v>
       </c>
@@ -48033,7 +48636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>744</v>
       </c>
@@ -48050,7 +48653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>764</v>
       </c>
@@ -48067,7 +48670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>782</v>
       </c>
@@ -48084,7 +48687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>712</v>
       </c>
@@ -49319,10 +49922,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C213F4-C97B-4AA9-8D32-EB3849515519}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49334,7 +49937,7 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -49352,7 +49955,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>878</v>
       </c>
@@ -49369,8 +49972,15 @@
         <v>6</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D126)</f>
+        <v>0.46327999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>898</v>
       </c>
@@ -49387,8 +49997,15 @@
         <v>3</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D126)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>879</v>
       </c>
@@ -49405,8 +50022,15 @@
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>877</v>
       </c>
@@ -49423,8 +50047,15 @@
         <v>6</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D126)</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>820</v>
       </c>
@@ -49441,8 +50072,15 @@
         <v>6</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D126)</f>
+        <v>0.63435103972485163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>827</v>
       </c>
@@ -49460,7 +50098,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>820</v>
       </c>
@@ -49478,7 +50116,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>827</v>
       </c>
@@ -49496,7 +50134,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>829</v>
       </c>
@@ -49514,7 +50152,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>820</v>
       </c>
@@ -49532,7 +50170,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>820</v>
       </c>
@@ -49550,7 +50188,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>830</v>
       </c>
@@ -49568,7 +50206,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>800</v>
       </c>
@@ -49586,7 +50224,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>799</v>
       </c>
@@ -49604,7 +50242,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>820</v>
       </c>
@@ -51652,10 +52290,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53023BE1-2526-402B-824A-08E1B38FEB29}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51665,9 +52303,10 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -51684,7 +52323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>922</v>
       </c>
@@ -51700,8 +52339,15 @@
       <c r="E2" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D13)</f>
+        <v>4.416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>916</v>
       </c>
@@ -51717,8 +52363,15 @@
       <c r="E3" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D13)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>919</v>
       </c>
@@ -51734,8 +52387,15 @@
       <c r="E4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>920</v>
       </c>
@@ -51749,8 +52409,15 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D13)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>922</v>
       </c>
@@ -51766,8 +52433,15 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D13)</f>
+        <v>4.2122506520333711E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>919</v>
       </c>
@@ -51784,7 +52458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>921</v>
       </c>
@@ -51799,7 +52473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>919</v>
       </c>
@@ -51814,7 +52488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>922</v>
       </c>
@@ -51829,7 +52503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>918</v>
       </c>
@@ -51844,7 +52518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>914</v>
       </c>
@@ -51861,7 +52535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>918</v>
       </c>
@@ -51889,10 +52563,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99BD1CC-4468-4FDC-AAB4-2B9F9C0EFB5A}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51904,7 +52578,7 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -51922,7 +52596,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>943</v>
       </c>
@@ -51939,8 +52613,15 @@
         <v>713</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D39)</f>
+        <v>0.51236842105263147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>947</v>
       </c>
@@ -51957,8 +52638,15 @@
         <v>713</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D39)</f>
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>941</v>
       </c>
@@ -51975,8 +52663,15 @@
         <v>713</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D39)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>945</v>
       </c>
@@ -51993,8 +52688,15 @@
         <v>713</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D39)</f>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>946</v>
       </c>
@@ -52011,8 +52713,15 @@
         <v>713</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D39)</f>
+        <v>0.37509601725513564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>924</v>
       </c>
@@ -52030,7 +52739,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>961</v>
       </c>
@@ -52048,7 +52757,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>939</v>
       </c>
@@ -52066,7 +52775,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>929</v>
       </c>
@@ -52084,7 +52793,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>936</v>
       </c>
@@ -52102,7 +52811,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>929</v>
       </c>
@@ -52120,7 +52829,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>961</v>
       </c>
@@ -52138,7 +52847,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>929</v>
       </c>
@@ -52156,7 +52865,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>933</v>
       </c>
@@ -52174,7 +52883,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>937</v>
       </c>
@@ -52617,10 +53326,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296C6DAC-7288-4581-B1AF-EE8D7196060B}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52632,7 +53341,7 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -52650,7 +53359,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>978</v>
       </c>
@@ -52667,8 +53376,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G2" s="32" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="33">
+        <f>AVERAGE(D2:D33)</f>
+        <v>0.11062499999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>987</v>
       </c>
@@ -52685,8 +53401,15 @@
         <v>3</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="32" t="s">
+        <v>2654</v>
+      </c>
+      <c r="H3" s="33">
+        <f>MEDIAN(D2:D33)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1000</v>
       </c>
@@ -52703,8 +53426,15 @@
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G4" s="32" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H4" s="33">
+        <f>MIN(D2:D33)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>984</v>
       </c>
@@ -52721,8 +53451,15 @@
         <v>3</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" s="32" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H5" s="33">
+        <f>MAX(D2:D33)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>996</v>
       </c>
@@ -52739,8 +53476,15 @@
         <v>6</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G6" s="32" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H6" s="34">
+        <f>_xlfn.STDEV.P(D2:D33)</f>
+        <v>0.10836678169531477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>993</v>
       </c>
@@ -52758,7 +53502,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>966</v>
       </c>
@@ -52776,7 +53520,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>980</v>
       </c>
@@ -52794,7 +53538,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>998</v>
       </c>
@@ -52812,7 +53556,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>981</v>
       </c>
@@ -52830,7 +53574,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>993</v>
       </c>
@@ -52848,7 +53592,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>998</v>
       </c>
@@ -52866,7 +53610,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>998</v>
       </c>
@@ -52884,7 +53628,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1002</v>
       </c>
@@ -52902,7 +53646,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>968</v>
       </c>
